--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaSampleProjects\ContactManagementSystem\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB700FB7-5E9C-474A-BB94-786618E69B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D0DA5-D251-46D1-B855-C8913ABF518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>testing</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>srividhyaa0809031033@test.com</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -510,75 +519,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -589,103 +614,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02DF21C-DC38-421A-9C04-51ABCDF27097}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -698,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F7C34-880C-4C62-A888-54D235FDDBEF}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
